--- a/data/corregister.xlsx
+++ b/data/corregister.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lglippen\Documents\Personal blog\louislippens\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4302D6F-7625-44D6-85A9-D2B97D9F73ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBC8004-4623-4A9D-B9CD-1CD4BF924CC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{BB71CEA7-7D65-4AEC-A603-60DD08150108}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Corregister_v7 2005-2020" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Corregister_v7 2005-2020'!$A$1:$N$218</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Corregister_v7 2005-2020'!$A$1:$N$220</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="743">
   <si>
     <t>France</t>
   </si>
@@ -2230,6 +2230,33 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.labeco.2009.04.005</t>
+  </si>
+  <si>
+    <t>Iraqi or Somali origin</t>
+  </si>
+  <si>
+    <t>Vernby &amp; Dancygier (2019)</t>
+  </si>
+  <si>
+    <t>Vernby &amp; Dancygier</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pone.0218044</t>
+  </si>
+  <si>
+    <t>African American origin</t>
+  </si>
+  <si>
+    <t>Anglo-Saxon origin</t>
+  </si>
+  <si>
+    <t>Uggen et al. (2014)</t>
+  </si>
+  <si>
+    <t>Uggen et al.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/1745-9125.12051</t>
   </si>
 </sst>
 </file>
@@ -2585,7 +2612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23E7806-EE64-4B07-82A4-BCBC3CF6BFF6}">
-  <dimension ref="A1:N218"/>
+  <dimension ref="A1:N220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6568,16 +6595,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>734</v>
       </c>
       <c r="D91" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -6589,39 +6616,39 @@
         <v>718</v>
       </c>
       <c r="H91" t="s">
-        <v>58</v>
+        <v>735</v>
       </c>
       <c r="I91" t="s">
-        <v>627</v>
+        <v>736</v>
       </c>
       <c r="J91" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K91" s="2">
-        <v>2017</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="L91" t="s">
+        <v>117</v>
       </c>
       <c r="M91" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>223</v>
+        <v>737</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>738</v>
       </c>
       <c r="D92" t="s">
-        <v>482</v>
+        <v>739</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
@@ -6633,16 +6660,16 @@
         <v>714</v>
       </c>
       <c r="H92" t="s">
-        <v>59</v>
+        <v>740</v>
       </c>
       <c r="I92" t="s">
-        <v>628</v>
+        <v>741</v>
       </c>
       <c r="J92" s="2">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="K92" s="2">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="L92" t="s">
         <v>117</v>
@@ -6651,7 +6678,7 @@
         <v>551</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>289</v>
+        <v>742</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -6665,37 +6692,37 @@
         <v>378</v>
       </c>
       <c r="D93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
         <v>694</v>
       </c>
       <c r="G93" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H93" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="I93" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J93" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="K93" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L93" t="s">
-        <v>117</v>
+        <v>2017</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -6709,28 +6736,28 @@
         <v>378</v>
       </c>
       <c r="D94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G94" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H94" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="I94" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J94" s="2">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="K94" s="2">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="L94" t="s">
         <v>117</v>
@@ -6739,7 +6766,7 @@
         <v>551</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -6756,34 +6783,34 @@
         <v>483</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F95" t="s">
         <v>694</v>
       </c>
       <c r="G95" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H95" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="I95" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J95" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="K95" s="2">
-        <v>2017</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="L95" t="s">
+        <v>117</v>
       </c>
       <c r="M95" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -6794,25 +6821,25 @@
         <v>534</v>
       </c>
       <c r="C96" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E96" t="s">
-        <v>726</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s">
         <v>694</v>
       </c>
       <c r="G96" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="H96" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I96" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J96" s="2">
         <v>2019</v>
@@ -6821,13 +6848,13 @@
         <v>2019</v>
       </c>
       <c r="L96" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M96" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -6838,40 +6865,40 @@
         <v>534</v>
       </c>
       <c r="C97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D97" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F97" t="s">
         <v>694</v>
       </c>
       <c r="G97" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H97" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I97" t="s">
-        <v>586</v>
+        <v>627</v>
       </c>
       <c r="J97" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="K97" s="2">
-        <v>2012</v>
-      </c>
-      <c r="L97" t="s">
-        <v>117</v>
+        <v>2017</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
       </c>
       <c r="M97" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -6882,31 +6909,31 @@
         <v>534</v>
       </c>
       <c r="C98" t="s">
-        <v>461</v>
+        <v>379</v>
       </c>
       <c r="D98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>726</v>
       </c>
       <c r="F98" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G98" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J98" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K98" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L98" t="s">
         <v>61</v>
@@ -6915,7 +6942,7 @@
         <v>552</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>700</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -6926,40 +6953,40 @@
         <v>534</v>
       </c>
       <c r="C99" t="s">
-        <v>461</v>
+        <v>380</v>
       </c>
       <c r="D99" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G99" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H99" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I99" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="J99" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="K99" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="L99" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -6976,34 +7003,34 @@
         <v>486</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="F100" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="G100" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="H100" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="I100" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J100" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="K100" s="2">
-        <v>2015</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
+        <v>2017</v>
+      </c>
+      <c r="L100" t="s">
+        <v>61</v>
       </c>
       <c r="M100" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>366</v>
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -7020,34 +7047,34 @@
         <v>486</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F101" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G101" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H101" t="s">
-        <v>347</v>
+        <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="J101" s="2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="K101" s="2">
-        <v>2016</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
+        <v>2010</v>
+      </c>
+      <c r="L101" t="s">
+        <v>61</v>
       </c>
       <c r="M101" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>372</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -7073,16 +7100,16 @@
         <v>713</v>
       </c>
       <c r="H102" t="s">
-        <v>32</v>
+        <v>346</v>
       </c>
       <c r="I102" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="J102" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="K102" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -7091,7 +7118,7 @@
         <v>550</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -7108,34 +7135,34 @@
         <v>486</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G103" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H103" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="I103" t="s">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="J103" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="K103" s="2">
-        <v>2013</v>
-      </c>
-      <c r="L103" t="s">
-        <v>61</v>
+        <v>2016</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -7152,7 +7179,7 @@
         <v>486</v>
       </c>
       <c r="E104" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
         <v>694</v>
@@ -7161,10 +7188,10 @@
         <v>713</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="J104" s="2">
         <v>2012</v>
@@ -7172,14 +7199,14 @@
       <c r="K104" s="2">
         <v>2012</v>
       </c>
-      <c r="L104" t="s">
-        <v>61</v>
+      <c r="L104">
+        <v>0</v>
       </c>
       <c r="M104" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -7196,34 +7223,34 @@
         <v>486</v>
       </c>
       <c r="E105" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G105" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I105" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="J105" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="K105" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="L105" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="M105" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -7249,25 +7276,25 @@
         <v>713</v>
       </c>
       <c r="H106" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="I106" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J106" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="K106" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="L106" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="M106" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>699</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -7293,16 +7320,16 @@
         <v>713</v>
       </c>
       <c r="H107" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="J107" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="K107" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="L107" t="s">
         <v>117</v>
@@ -7311,7 +7338,7 @@
         <v>551</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -7337,25 +7364,25 @@
         <v>713</v>
       </c>
       <c r="H108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I108" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="J108" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="K108" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="L108" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M108" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>232</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -7372,34 +7399,34 @@
         <v>486</v>
       </c>
       <c r="E109" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G109" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H109" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I109" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="J109" s="2">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="K109" s="2">
-        <v>2018</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
+        <v>2006</v>
+      </c>
+      <c r="L109" t="s">
+        <v>117</v>
       </c>
       <c r="M109" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -7416,34 +7443,34 @@
         <v>486</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F110" t="s">
         <v>694</v>
       </c>
       <c r="G110" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H110" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I110" t="s">
-        <v>564</v>
+        <v>637</v>
       </c>
       <c r="J110" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="K110" s="2">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="L110" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="M110" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -7460,34 +7487,34 @@
         <v>486</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="F111" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G111" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="I111" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="J111" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="K111" s="2">
-        <v>2017</v>
-      </c>
-      <c r="L111" t="s">
-        <v>117</v>
+        <v>2018</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -7504,34 +7531,34 @@
         <v>486</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="F112" t="s">
         <v>694</v>
       </c>
       <c r="G112" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H112" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I112" t="s">
-        <v>638</v>
+        <v>564</v>
       </c>
       <c r="J112" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K112" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L112" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M112" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -7548,34 +7575,34 @@
         <v>486</v>
       </c>
       <c r="E113" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G113" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="H113" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="I113" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="J113" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="K113" s="2">
-        <v>2011</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
+        <v>2017</v>
+      </c>
+      <c r="L113" t="s">
+        <v>117</v>
       </c>
       <c r="M113" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -7592,34 +7619,34 @@
         <v>486</v>
       </c>
       <c r="E114" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="F114" t="s">
         <v>694</v>
       </c>
       <c r="G114" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I114" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="J114" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K114" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L114" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="M114" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -7645,25 +7672,25 @@
         <v>719</v>
       </c>
       <c r="H115" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="I115" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="J115" s="2">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="K115" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L115" t="s">
-        <v>117</v>
+        <v>2011</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -7680,25 +7707,25 @@
         <v>486</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F116" t="s">
         <v>694</v>
       </c>
       <c r="G116" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H116" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="I116" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="J116" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K116" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L116" t="s">
         <v>117</v>
@@ -7707,7 +7734,7 @@
         <v>551</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -7724,34 +7751,34 @@
         <v>486</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F117" t="s">
         <v>694</v>
       </c>
       <c r="G117" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H117" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="I117" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="J117" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="K117" s="2">
-        <v>2017</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="L117" t="s">
+        <v>117</v>
       </c>
       <c r="M117" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -7777,25 +7804,25 @@
         <v>718</v>
       </c>
       <c r="H118" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I118" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="J118" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="K118" s="2">
-        <v>2011</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
+        <v>2018</v>
+      </c>
+      <c r="L118" t="s">
+        <v>117</v>
       </c>
       <c r="M118" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -7821,10 +7848,10 @@
         <v>718</v>
       </c>
       <c r="H119" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I119" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="J119" s="2">
         <v>2017</v>
@@ -7839,7 +7866,7 @@
         <v>550</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -7865,16 +7892,16 @@
         <v>718</v>
       </c>
       <c r="H120" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I120" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="J120" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="K120" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -7883,7 +7910,7 @@
         <v>550</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
@@ -7909,25 +7936,25 @@
         <v>718</v>
       </c>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="I121" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="J121" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="K121" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L121" t="s">
-        <v>117</v>
+        <v>2017</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -7944,25 +7971,25 @@
         <v>486</v>
       </c>
       <c r="E122" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G122" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="I122" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="J122" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="K122" s="2">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -7971,7 +7998,7 @@
         <v>550</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
@@ -7988,7 +8015,7 @@
         <v>486</v>
       </c>
       <c r="E123" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
         <v>694</v>
@@ -7997,25 +8024,25 @@
         <v>718</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="I123" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J123" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="K123" s="2">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="L123" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M123" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -8032,34 +8059,34 @@
         <v>486</v>
       </c>
       <c r="E124" t="s">
-        <v>690</v>
+        <v>136</v>
       </c>
       <c r="F124" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G124" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H124" t="s">
-        <v>691</v>
+        <v>157</v>
       </c>
       <c r="I124" t="s">
-        <v>644</v>
+        <v>598</v>
       </c>
       <c r="J124" s="2">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="K124" s="2">
-        <v>2006</v>
-      </c>
-      <c r="L124" t="s">
-        <v>117</v>
+        <v>2018</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
       </c>
       <c r="M124" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
@@ -8076,34 +8103,34 @@
         <v>486</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>690</v>
       </c>
       <c r="F125" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G125" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I125" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="J125" s="2">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="K125" s="2">
-        <v>2016</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="L125" t="s">
+        <v>61</v>
       </c>
       <c r="M125" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
@@ -8120,34 +8147,34 @@
         <v>486</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>690</v>
       </c>
       <c r="F126" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G126" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H126" t="s">
-        <v>233</v>
+        <v>691</v>
       </c>
       <c r="I126" t="s">
-        <v>590</v>
+        <v>644</v>
       </c>
       <c r="J126" s="2">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="K126" s="2">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="L126" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M126" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -8158,40 +8185,40 @@
         <v>534</v>
       </c>
       <c r="C127" t="s">
-        <v>381</v>
+        <v>461</v>
       </c>
       <c r="D127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E127" t="s">
-        <v>690</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G127" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H127" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="I127" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J127" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="K127" s="2">
-        <v>2018</v>
-      </c>
-      <c r="L127" t="s">
-        <v>117</v>
+        <v>2016</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
       </c>
       <c r="M127" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>230</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -8202,40 +8229,40 @@
         <v>534</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>461</v>
       </c>
       <c r="D128" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G128" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="I128" t="s">
-        <v>647</v>
+        <v>590</v>
       </c>
       <c r="J128" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="K128" s="2">
-        <v>2020</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="L128" t="s">
+        <v>61</v>
       </c>
       <c r="M128" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -8246,13 +8273,13 @@
         <v>534</v>
       </c>
       <c r="C129" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D129" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>690</v>
       </c>
       <c r="F129" t="s">
         <v>694</v>
@@ -8261,16 +8288,16 @@
         <v>718</v>
       </c>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I129" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J129" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K129" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L129" t="s">
         <v>117</v>
@@ -8279,36 +8306,36 @@
         <v>551</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C130" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D130" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F130" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G130" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H130" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="I130" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="J130" s="2">
         <v>2020</v>
@@ -8323,42 +8350,42 @@
         <v>550</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C131" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="D131" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E131" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
         <v>694</v>
       </c>
       <c r="G131" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H131" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="I131" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="J131" s="2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="K131" s="2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="L131" t="s">
         <v>117</v>
@@ -8367,7 +8394,7 @@
         <v>551</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -8378,10 +8405,10 @@
         <v>535</v>
       </c>
       <c r="C132" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D132" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E132" t="s">
         <v>36</v>
@@ -8393,25 +8420,25 @@
         <v>714</v>
       </c>
       <c r="H132" t="s">
-        <v>701</v>
+        <v>124</v>
       </c>
       <c r="I132" t="s">
-        <v>649</v>
+        <v>576</v>
       </c>
       <c r="J132" s="2">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="K132" s="2">
-        <v>2014</v>
-      </c>
-      <c r="L132" t="s">
-        <v>117</v>
+        <v>2020</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>302</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
@@ -8422,25 +8449,25 @@
         <v>535</v>
       </c>
       <c r="C133" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="D133" t="s">
         <v>497</v>
       </c>
       <c r="E133" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s">
         <v>694</v>
       </c>
       <c r="G133" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="H133" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I133" t="s">
-        <v>650</v>
+        <v>563</v>
       </c>
       <c r="J133" s="2">
         <v>2010</v>
@@ -8455,7 +8482,7 @@
         <v>551</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -8466,31 +8493,31 @@
         <v>535</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D134" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E134" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G134" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H134" t="s">
-        <v>45</v>
+        <v>701</v>
       </c>
       <c r="I134" t="s">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="J134" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="K134" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L134" t="s">
         <v>117</v>
@@ -8499,7 +8526,7 @@
         <v>551</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -8525,16 +8552,16 @@
         <v>713</v>
       </c>
       <c r="H135" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="I135" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="J135" s="2">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="K135" s="2">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="L135" t="s">
         <v>117</v>
@@ -8543,7 +8570,7 @@
         <v>551</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -8560,7 +8587,7 @@
         <v>497</v>
       </c>
       <c r="E136" t="s">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="F136" t="s">
         <v>694</v>
@@ -8569,16 +8596,16 @@
         <v>713</v>
       </c>
       <c r="H136" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="I136" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="J136" s="2">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="K136" s="2">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="L136" t="s">
         <v>117</v>
@@ -8587,7 +8614,7 @@
         <v>551</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -8604,25 +8631,25 @@
         <v>497</v>
       </c>
       <c r="E137" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
         <v>694</v>
       </c>
       <c r="G137" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H137" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="I137" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="J137" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K137" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L137" t="s">
         <v>117</v>
@@ -8631,7 +8658,7 @@
         <v>551</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
@@ -8648,13 +8675,13 @@
         <v>497</v>
       </c>
       <c r="E138" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="F138" t="s">
         <v>694</v>
       </c>
       <c r="G138" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H138" t="s">
         <v>236</v>
@@ -8692,13 +8719,13 @@
         <v>497</v>
       </c>
       <c r="E139" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F139" t="s">
         <v>694</v>
       </c>
       <c r="G139" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H139" t="s">
         <v>236</v>
@@ -8736,34 +8763,34 @@
         <v>497</v>
       </c>
       <c r="E140" t="s">
-        <v>73</v>
+        <v>690</v>
       </c>
       <c r="F140" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G140" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H140" t="s">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="I140" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J140" s="2">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="K140" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="L140" t="s">
+        <v>117</v>
       </c>
       <c r="M140" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -8780,25 +8807,25 @@
         <v>497</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F141" t="s">
         <v>694</v>
       </c>
       <c r="G141" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H141" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="I141" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J141" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="K141" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L141" t="s">
         <v>117</v>
@@ -8807,7 +8834,7 @@
         <v>551</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -8824,34 +8851,34 @@
         <v>497</v>
       </c>
       <c r="E142" t="s">
-        <v>690</v>
+        <v>73</v>
       </c>
       <c r="F142" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G142" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H142" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J142" s="2">
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="K142" s="2">
-        <v>2017</v>
-      </c>
-      <c r="L142" t="s">
-        <v>117</v>
+        <v>2009</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
       </c>
       <c r="M142" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -8868,34 +8895,34 @@
         <v>497</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F143" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G143" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="I143" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J143" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="K143" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
+        <v>2017</v>
+      </c>
+      <c r="L143" t="s">
+        <v>117</v>
       </c>
       <c r="M143" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -8909,28 +8936,28 @@
         <v>385</v>
       </c>
       <c r="D144" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>690</v>
       </c>
       <c r="F144" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G144" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H144" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="I144" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="J144" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="K144" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="L144" t="s">
         <v>117</v>
@@ -8939,7 +8966,7 @@
         <v>551</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
@@ -8953,37 +8980,37 @@
         <v>385</v>
       </c>
       <c r="D145" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E145" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G145" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H145" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I145" t="s">
-        <v>624</v>
+        <v>654</v>
       </c>
       <c r="J145" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K145" s="2">
         <v>2019</v>
       </c>
-      <c r="L145" t="s">
-        <v>117</v>
+      <c r="L145">
+        <v>0</v>
       </c>
       <c r="M145" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -8994,31 +9021,31 @@
         <v>535</v>
       </c>
       <c r="C146" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D146" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G146" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H146" t="s">
-        <v>730</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="J146" s="2">
         <v>2020</v>
       </c>
       <c r="K146" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L146" t="s">
         <v>117</v>
@@ -9027,42 +9054,42 @@
         <v>551</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>731</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C147" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="D147" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F147" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G147" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H147" t="s">
-        <v>729</v>
+        <v>151</v>
       </c>
       <c r="I147" t="s">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="J147" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K147" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L147" t="s">
         <v>117</v>
@@ -9071,24 +9098,24 @@
         <v>551</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>728</v>
+        <v>204</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C148" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="D148" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F148" t="s">
         <v>694</v>
@@ -9097,16 +9124,16 @@
         <v>713</v>
       </c>
       <c r="H148" t="s">
-        <v>77</v>
+        <v>730</v>
       </c>
       <c r="I148" t="s">
-        <v>634</v>
+        <v>585</v>
       </c>
       <c r="J148" s="2">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="K148" s="2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="L148" t="s">
         <v>117</v>
@@ -9115,7 +9142,7 @@
         <v>551</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>303</v>
+        <v>731</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -9126,31 +9153,31 @@
         <v>536</v>
       </c>
       <c r="C149" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="D149" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E149" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G149" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>729</v>
       </c>
       <c r="I149" t="s">
-        <v>564</v>
+        <v>659</v>
       </c>
       <c r="J149" s="2">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K149" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="L149" t="s">
         <v>117</v>
@@ -9159,7 +9186,7 @@
         <v>551</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>240</v>
+        <v>728</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -9170,40 +9197,40 @@
         <v>536</v>
       </c>
       <c r="C150" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="D150" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G150" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="I150" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="J150" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="K150" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="L150" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M150" t="s">
-        <v>703</v>
+        <v>551</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -9220,25 +9247,25 @@
         <v>519</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F151" t="s">
         <v>694</v>
       </c>
       <c r="G151" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H151" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="I151" t="s">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="J151" s="2">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="K151" s="2">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="L151" t="s">
         <v>117</v>
@@ -9247,7 +9274,7 @@
         <v>551</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>367</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -9264,34 +9291,34 @@
         <v>519</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G152" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="H152" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="I152" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="J152" s="2">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="K152" s="2">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="L152" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M152" t="s">
-        <v>551</v>
+        <v>703</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>368</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -9302,31 +9329,31 @@
         <v>536</v>
       </c>
       <c r="C153" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D153" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E153" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
         <v>694</v>
       </c>
       <c r="G153" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H153" t="s">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="I153" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="J153" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="K153" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="L153" t="s">
         <v>117</v>
@@ -9335,7 +9362,7 @@
         <v>551</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -9346,31 +9373,31 @@
         <v>536</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D154" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G154" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H154" t="s">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="I154" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J154" s="2">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="K154" s="2">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="L154" t="s">
         <v>117</v>
@@ -9379,7 +9406,7 @@
         <v>551</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -9390,31 +9417,31 @@
         <v>536</v>
       </c>
       <c r="C155" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="D155" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E155" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F155" t="s">
         <v>694</v>
       </c>
       <c r="G155" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H155" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I155" t="s">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="J155" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="K155" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="L155" t="s">
         <v>117</v>
@@ -9423,7 +9450,7 @@
         <v>551</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -9434,31 +9461,31 @@
         <v>536</v>
       </c>
       <c r="C156" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D156" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G156" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H156" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I156" t="s">
-        <v>586</v>
+        <v>658</v>
       </c>
       <c r="J156" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="K156" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="L156" t="s">
         <v>117</v>
@@ -9467,7 +9494,7 @@
         <v>551</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
@@ -9478,31 +9505,31 @@
         <v>536</v>
       </c>
       <c r="C157" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="D157" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E157" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G157" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="H157" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="I157" t="s">
-        <v>660</v>
+        <v>563</v>
       </c>
       <c r="J157" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="K157" s="2">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="L157" t="s">
         <v>117</v>
@@ -9511,7 +9538,7 @@
         <v>551</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -9522,31 +9549,31 @@
         <v>536</v>
       </c>
       <c r="C158" t="s">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="D158" t="s">
         <v>524</v>
       </c>
       <c r="E158" t="s">
-        <v>690</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
         <v>694</v>
       </c>
       <c r="G158" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H158" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I158" t="s">
-        <v>661</v>
+        <v>586</v>
       </c>
       <c r="J158" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K158" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="L158" t="s">
         <v>117</v>
@@ -9555,24 +9582,24 @@
         <v>551</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C159" t="s">
-        <v>391</v>
+        <v>113</v>
       </c>
       <c r="D159" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="F159" t="s">
         <v>693</v>
@@ -9581,10 +9608,10 @@
         <v>714</v>
       </c>
       <c r="H159" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I159" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J159" s="2">
         <v>2019</v>
@@ -9599,42 +9626,42 @@
         <v>551</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>113</v>
       </c>
       <c r="D160" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>690</v>
       </c>
       <c r="F160" t="s">
         <v>694</v>
       </c>
       <c r="G160" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H160" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="I160" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="J160" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K160" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="L160" t="s">
         <v>117</v>
@@ -9643,7 +9670,7 @@
         <v>551</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -9654,25 +9681,25 @@
         <v>537</v>
       </c>
       <c r="C161" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D161" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G161" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H161" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I161" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="J161" s="2">
         <v>2019</v>
@@ -9687,7 +9714,7 @@
         <v>551</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -9698,31 +9725,31 @@
         <v>537</v>
       </c>
       <c r="C162" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D162" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E162" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F162" t="s">
         <v>694</v>
       </c>
       <c r="G162" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H162" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I162" t="s">
-        <v>639</v>
+        <v>586</v>
       </c>
       <c r="J162" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="K162" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="L162" t="s">
         <v>117</v>
@@ -9731,7 +9758,7 @@
         <v>551</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>341</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -9742,13 +9769,13 @@
         <v>537</v>
       </c>
       <c r="C163" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D163" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="E163" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="F163" t="s">
         <v>694</v>
@@ -9757,16 +9784,16 @@
         <v>718</v>
       </c>
       <c r="H163" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="I163" t="s">
-        <v>663</v>
+        <v>605</v>
       </c>
       <c r="J163" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="K163" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="L163" t="s">
         <v>117</v>
@@ -9775,7 +9802,7 @@
         <v>551</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>369</v>
+        <v>243</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -9786,28 +9813,28 @@
         <v>537</v>
       </c>
       <c r="C164" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D164" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F164" t="s">
         <v>694</v>
       </c>
       <c r="G164" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H164" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I164" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="J164" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K164" s="2">
         <v>2011</v>
@@ -9819,7 +9846,7 @@
         <v>551</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -9830,31 +9857,31 @@
         <v>537</v>
       </c>
       <c r="C165" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D165" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E165" t="s">
-        <v>36</v>
+        <v>690</v>
       </c>
       <c r="F165" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G165" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H165" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="I165" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J165" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="K165" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="L165" t="s">
         <v>117</v>
@@ -9863,7 +9890,7 @@
         <v>551</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -9874,13 +9901,13 @@
         <v>537</v>
       </c>
       <c r="C166" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E166" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="F166" t="s">
         <v>694</v>
@@ -9889,16 +9916,16 @@
         <v>718</v>
       </c>
       <c r="H166" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I166" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
       <c r="J166" s="2">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="K166" s="2">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="L166" t="s">
         <v>117</v>
@@ -9907,7 +9934,7 @@
         <v>551</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>199</v>
+        <v>311</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -9918,31 +9945,31 @@
         <v>537</v>
       </c>
       <c r="C167" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E167" t="s">
-        <v>690</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G167" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H167" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I167" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="J167" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="K167" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L167" t="s">
         <v>117</v>
@@ -9951,7 +9978,7 @@
         <v>551</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -9962,31 +9989,31 @@
         <v>537</v>
       </c>
       <c r="C168" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D168" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>690</v>
       </c>
       <c r="F168" t="s">
         <v>694</v>
       </c>
       <c r="G168" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H168" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="I168" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="J168" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="K168" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L168" t="s">
         <v>117</v>
@@ -9995,7 +10022,7 @@
         <v>551</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -10006,10 +10033,10 @@
         <v>537</v>
       </c>
       <c r="C169" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D169" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="E169" t="s">
         <v>690</v>
@@ -10021,16 +10048,16 @@
         <v>718</v>
       </c>
       <c r="H169" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="I169" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="J169" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="K169" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="L169" t="s">
         <v>117</v>
@@ -10039,7 +10066,7 @@
         <v>551</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -10050,31 +10077,31 @@
         <v>537</v>
       </c>
       <c r="C170" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D170" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F170" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G170" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H170" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I170" t="s">
-        <v>667</v>
+        <v>594</v>
       </c>
       <c r="J170" s="2">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="K170" s="2">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="L170" t="s">
         <v>117</v>
@@ -10083,7 +10110,7 @@
         <v>551</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -10094,31 +10121,31 @@
         <v>537</v>
       </c>
       <c r="C171" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D171" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E171" t="s">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="F171" t="s">
         <v>694</v>
       </c>
       <c r="G171" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="H171" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I171" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J171" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="K171" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="L171" t="s">
         <v>117</v>
@@ -10127,7 +10154,7 @@
         <v>551</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -10138,31 +10165,31 @@
         <v>537</v>
       </c>
       <c r="C172" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
       <c r="D172" t="s">
-        <v>397</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>727</v>
+        <v>507</v>
+      </c>
+      <c r="E172" t="s">
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G172" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H172" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I172" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="J172" s="2">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="K172" s="2">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="L172" t="s">
         <v>117</v>
@@ -10171,7 +10198,7 @@
         <v>551</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -10182,25 +10209,25 @@
         <v>537</v>
       </c>
       <c r="C173" t="s">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="D173" t="s">
-        <v>397</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>64</v>
+        <v>494</v>
+      </c>
+      <c r="E173" t="s">
+        <v>0</v>
       </c>
       <c r="F173" t="s">
         <v>694</v>
       </c>
       <c r="G173" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H173" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I173" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="J173" s="2">
         <v>2015</v>
@@ -10215,7 +10242,7 @@
         <v>551</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -10226,31 +10253,31 @@
         <v>537</v>
       </c>
       <c r="C174" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="D174" t="s">
-        <v>508</v>
-      </c>
-      <c r="E174" t="s">
-        <v>36</v>
+        <v>397</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>727</v>
       </c>
       <c r="F174" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G174" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H174" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I174" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J174" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K174" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="L174" t="s">
         <v>117</v>
@@ -10259,7 +10286,7 @@
         <v>551</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>313</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -10270,31 +10297,31 @@
         <v>537</v>
       </c>
       <c r="C175" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="D175" t="s">
-        <v>509</v>
-      </c>
-      <c r="E175" t="s">
-        <v>36</v>
+        <v>397</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G175" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="H175" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I175" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J175" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K175" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="L175" t="s">
         <v>117</v>
@@ -10303,21 +10330,21 @@
         <v>551</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>309</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C176" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D176" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E176" t="s">
         <v>36</v>
@@ -10329,13 +10356,13 @@
         <v>714</v>
       </c>
       <c r="H176" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="I176" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="J176" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K176" s="2">
         <v>2016</v>
@@ -10347,51 +10374,51 @@
         <v>551</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C177" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D177" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G177" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H177" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I177" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="J177" s="2">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="K177" s="2">
-        <v>2013</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="L177" t="s">
+        <v>117</v>
       </c>
       <c r="M177" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -10402,10 +10429,10 @@
         <v>538</v>
       </c>
       <c r="C178" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D178" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E178" t="s">
         <v>36</v>
@@ -10417,25 +10444,25 @@
         <v>714</v>
       </c>
       <c r="H178" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I178" t="s">
         <v>669</v>
       </c>
       <c r="J178" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="K178" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L178" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="M178" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -10452,92 +10479,92 @@
         <v>511</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F179" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G179" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H179" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I179" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J179" s="2">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="K179" s="2">
-        <v>2009</v>
-      </c>
-      <c r="L179" t="s">
-        <v>61</v>
+        <v>2013</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
       </c>
       <c r="M179" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C180" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="D180" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E180" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
         <v>693</v>
       </c>
       <c r="G180" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="H180" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I180" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J180" s="2">
         <v>2019</v>
       </c>
       <c r="K180" s="2">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="L180" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="M180" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C181" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="D181" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E181" t="s">
         <v>36</v>
@@ -10549,25 +10576,25 @@
         <v>714</v>
       </c>
       <c r="H181" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I181" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="J181" s="2">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="K181" s="2">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="L181" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="M181" t="s">
-        <v>703</v>
+        <v>552</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -10584,34 +10611,34 @@
         <v>512</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="F182" t="s">
         <v>693</v>
       </c>
       <c r="G182" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="H182" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I182" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J182" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="K182" s="2">
-        <v>2018</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
+        <v>2019</v>
+      </c>
+      <c r="L182" t="s">
+        <v>117</v>
       </c>
       <c r="M182" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -10622,40 +10649,40 @@
         <v>539</v>
       </c>
       <c r="C183" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="D183" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E183" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G183" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H183" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I183" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="J183" s="2">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="K183" s="2">
-        <v>2008</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="L183" t="s">
+        <v>118</v>
       </c>
       <c r="M183" t="s">
-        <v>550</v>
+        <v>703</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -10666,40 +10693,40 @@
         <v>539</v>
       </c>
       <c r="C184" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
       <c r="D184" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E184" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G184" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H184" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="I184" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J184" s="2">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="K184" s="2">
-        <v>2011</v>
-      </c>
-      <c r="L184" t="s">
-        <v>117</v>
+        <v>2018</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
       </c>
       <c r="M184" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -10710,31 +10737,31 @@
         <v>539</v>
       </c>
       <c r="C185" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="D185" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="F185" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G185" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H185" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="I185" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="J185" s="2">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="K185" s="2">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="L185">
         <v>0</v>
@@ -10743,7 +10770,7 @@
         <v>550</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -10754,31 +10781,31 @@
         <v>539</v>
       </c>
       <c r="C186" t="s">
-        <v>464</v>
+        <v>408</v>
       </c>
       <c r="D186" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E186" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F186" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G186" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="H186" t="s">
-        <v>370</v>
+        <v>93</v>
       </c>
       <c r="I186" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J186" s="2">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="K186" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="L186" t="s">
         <v>117</v>
@@ -10787,7 +10814,7 @@
         <v>551</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -10798,13 +10825,13 @@
         <v>539</v>
       </c>
       <c r="C187" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D187" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E187" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="F187" t="s">
         <v>694</v>
@@ -10813,16 +10840,16 @@
         <v>718</v>
       </c>
       <c r="H187" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="I187" t="s">
-        <v>676</v>
+        <v>641</v>
       </c>
       <c r="J187" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="K187" s="2">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="L187">
         <v>0</v>
@@ -10831,183 +10858,183 @@
         <v>550</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C188" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D188" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="E188" t="s">
-        <v>467</v>
+        <v>0</v>
       </c>
       <c r="F188" t="s">
-        <v>467</v>
+        <v>694</v>
       </c>
       <c r="G188" t="s">
-        <v>467</v>
+        <v>713</v>
       </c>
       <c r="H188" t="s">
-        <v>467</v>
+        <v>370</v>
       </c>
       <c r="I188" t="s">
-        <v>467</v>
-      </c>
-      <c r="J188" t="s">
-        <v>467</v>
-      </c>
-      <c r="K188" s="2" t="s">
-        <v>467</v>
+        <v>675</v>
+      </c>
+      <c r="J188" s="2">
+        <v>2016</v>
+      </c>
+      <c r="K188" s="2">
+        <v>2015</v>
       </c>
       <c r="L188" t="s">
-        <v>467</v>
+        <v>117</v>
       </c>
       <c r="M188" t="s">
-        <v>467</v>
-      </c>
-      <c r="N188" t="s">
-        <v>467</v>
+        <v>551</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C189" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D189" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="E189" t="s">
-        <v>467</v>
+        <v>690</v>
       </c>
       <c r="F189" t="s">
-        <v>467</v>
+        <v>694</v>
       </c>
       <c r="G189" t="s">
-        <v>467</v>
+        <v>718</v>
       </c>
       <c r="H189" t="s">
-        <v>467</v>
+        <v>92</v>
       </c>
       <c r="I189" t="s">
-        <v>467</v>
-      </c>
-      <c r="J189" t="s">
-        <v>467</v>
-      </c>
-      <c r="K189" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="L189" t="s">
-        <v>467</v>
+        <v>676</v>
+      </c>
+      <c r="J189" s="2">
+        <v>2014</v>
+      </c>
+      <c r="K189" s="2">
+        <v>2014</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
       </c>
       <c r="M189" t="s">
-        <v>467</v>
-      </c>
-      <c r="N189" t="s">
-        <v>467</v>
+        <v>550</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C190" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="D190" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>467</v>
       </c>
       <c r="F190" t="s">
-        <v>695</v>
+        <v>467</v>
       </c>
       <c r="G190" t="s">
-        <v>715</v>
+        <v>467</v>
       </c>
       <c r="H190" t="s">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="I190" t="s">
-        <v>677</v>
-      </c>
-      <c r="J190" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K190" s="2">
-        <v>2020</v>
-      </c>
-      <c r="L190">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="J190" t="s">
+        <v>467</v>
+      </c>
+      <c r="K190" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L190" t="s">
+        <v>467</v>
       </c>
       <c r="M190" t="s">
-        <v>550</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>252</v>
+        <v>467</v>
+      </c>
+      <c r="N190" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C191" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="D191" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>467</v>
       </c>
       <c r="F191" t="s">
-        <v>693</v>
+        <v>467</v>
       </c>
       <c r="G191" t="s">
-        <v>723</v>
+        <v>467</v>
       </c>
       <c r="H191" t="s">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="I191" t="s">
-        <v>608</v>
-      </c>
-      <c r="J191" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K191" s="2">
-        <v>2014</v>
-      </c>
-      <c r="L191">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="J191" t="s">
+        <v>467</v>
+      </c>
+      <c r="K191" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="L191" t="s">
+        <v>467</v>
       </c>
       <c r="M191" t="s">
-        <v>550</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>280</v>
+        <v>467</v>
+      </c>
+      <c r="N191" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -11018,69 +11045,69 @@
         <v>542</v>
       </c>
       <c r="C192" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D192" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E192" t="s">
-        <v>726</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G192" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H192" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="I192" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="J192" s="2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K192" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L192" t="s">
-        <v>117</v>
+        <v>2020</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
       </c>
       <c r="M192" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C193" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D193" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E193" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F193" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G193" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="H193" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I193" t="s">
-        <v>563</v>
+        <v>608</v>
       </c>
       <c r="J193" s="2">
         <v>2014</v>
@@ -11088,31 +11115,31 @@
       <c r="K193" s="2">
         <v>2014</v>
       </c>
-      <c r="L193" t="s">
-        <v>117</v>
+      <c r="L193">
+        <v>0</v>
       </c>
       <c r="M193" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N193" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C194" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D194" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E194" t="s">
-        <v>53</v>
+        <v>726</v>
       </c>
       <c r="F194" t="s">
         <v>694</v>
@@ -11121,16 +11148,16 @@
         <v>713</v>
       </c>
       <c r="H194" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="I194" t="s">
-        <v>585</v>
+        <v>631</v>
       </c>
       <c r="J194" s="2">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="K194" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="L194" t="s">
         <v>117</v>
@@ -11139,7 +11166,7 @@
         <v>551</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>319</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -11156,25 +11183,25 @@
         <v>529</v>
       </c>
       <c r="E195" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F195" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G195" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H195" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I195" t="s">
         <v>563</v>
       </c>
       <c r="J195" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="K195" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="L195" t="s">
         <v>117</v>
@@ -11183,7 +11210,7 @@
         <v>551</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -11200,25 +11227,25 @@
         <v>529</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F196" t="s">
         <v>694</v>
       </c>
       <c r="G196" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="H196" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I196" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="J196" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="K196" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="L196" t="s">
         <v>117</v>
@@ -11227,7 +11254,7 @@
         <v>551</v>
       </c>
       <c r="N196" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -11244,7 +11271,7 @@
         <v>529</v>
       </c>
       <c r="E197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F197" t="s">
         <v>694</v>
@@ -11253,25 +11280,25 @@
         <v>719</v>
       </c>
       <c r="H197" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I197" t="s">
-        <v>678</v>
+        <v>563</v>
       </c>
       <c r="J197" s="2">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="K197" s="2">
-        <v>2014</v>
-      </c>
-      <c r="L197">
-        <v>0</v>
+        <v>2009</v>
+      </c>
+      <c r="L197" t="s">
+        <v>117</v>
       </c>
       <c r="M197" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -11288,25 +11315,25 @@
         <v>529</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F198" t="s">
         <v>694</v>
       </c>
       <c r="G198" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H198" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I198" t="s">
-        <v>664</v>
+        <v>563</v>
       </c>
       <c r="J198" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K198" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="L198" t="s">
         <v>117</v>
@@ -11315,7 +11342,7 @@
         <v>551</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
@@ -11332,25 +11359,25 @@
         <v>529</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F199" t="s">
         <v>694</v>
       </c>
       <c r="G199" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H199" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I199" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J199" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="K199" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L199">
         <v>0</v>
@@ -11359,7 +11386,7 @@
         <v>550</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -11376,7 +11403,7 @@
         <v>529</v>
       </c>
       <c r="E200" t="s">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="F200" t="s">
         <v>694</v>
@@ -11385,16 +11412,16 @@
         <v>718</v>
       </c>
       <c r="H200" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I200" t="s">
-        <v>563</v>
+        <v>664</v>
       </c>
       <c r="J200" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K200" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L200" t="s">
         <v>117</v>
@@ -11403,7 +11430,7 @@
         <v>551</v>
       </c>
       <c r="N200" s="1" t="s">
-        <v>702</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -11420,34 +11447,34 @@
         <v>529</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F201" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G201" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H201" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I201" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J201" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="K201" s="2">
-        <v>2016</v>
-      </c>
-      <c r="L201" t="s">
-        <v>117</v>
+        <v>2013</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
       </c>
       <c r="M201" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N201" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -11464,25 +11491,25 @@
         <v>529</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>690</v>
       </c>
       <c r="F202" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G202" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="H202" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I202" t="s">
-        <v>681</v>
+        <v>563</v>
       </c>
       <c r="J202" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="K202" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="L202" t="s">
         <v>117</v>
@@ -11491,7 +11518,7 @@
         <v>551</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>325</v>
+        <v>702</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -11502,40 +11529,40 @@
         <v>543</v>
       </c>
       <c r="C203" t="s">
-        <v>114</v>
+        <v>411</v>
       </c>
       <c r="D203" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G203" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H203" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I203" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="J203" s="2">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="K203" s="2">
-        <v>2014</v>
-      </c>
-      <c r="L203">
-        <v>0</v>
+        <v>2016</v>
+      </c>
+      <c r="L203" t="s">
+        <v>117</v>
       </c>
       <c r="M203" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -11546,10 +11573,10 @@
         <v>543</v>
       </c>
       <c r="C204" t="s">
-        <v>465</v>
+        <v>411</v>
       </c>
       <c r="D204" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="E204" t="s">
         <v>36</v>
@@ -11561,39 +11588,39 @@
         <v>714</v>
       </c>
       <c r="H204" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="I204" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="J204" s="2">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="K204" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L204">
-        <v>0</v>
+        <v>2011</v>
+      </c>
+      <c r="L204" t="s">
+        <v>117</v>
       </c>
       <c r="M204" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C205" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D205" t="s">
-        <v>115</v>
+        <v>514</v>
       </c>
       <c r="E205" t="s">
         <v>31</v>
@@ -11605,10 +11632,10 @@
         <v>713</v>
       </c>
       <c r="H205" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I205" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="J205" s="2">
         <v>2014</v>
@@ -11623,112 +11650,112 @@
         <v>550</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C206" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="D206" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G206" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H206" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="I206" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="J206" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="K206" s="2">
-        <v>2015</v>
-      </c>
-      <c r="L206" t="s">
-        <v>117</v>
+        <v>2019</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
       </c>
       <c r="M206" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C207" t="s">
-        <v>466</v>
+        <v>115</v>
       </c>
       <c r="D207" t="s">
-        <v>517</v>
+        <v>115</v>
       </c>
       <c r="E207" t="s">
-        <v>690</v>
+        <v>31</v>
       </c>
       <c r="F207" t="s">
         <v>694</v>
       </c>
       <c r="G207" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H207" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="I207" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="J207" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="K207" s="2">
-        <v>2013</v>
-      </c>
-      <c r="L207" t="s">
-        <v>117</v>
+        <v>2014</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
       </c>
       <c r="M207" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D208" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E208" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F208" t="s">
         <v>694</v>
@@ -11737,16 +11764,16 @@
         <v>713</v>
       </c>
       <c r="H208" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="I208" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J208" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="K208" s="2">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="L208" t="s">
         <v>117</v>
@@ -11755,7 +11782,7 @@
         <v>551</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
@@ -11766,31 +11793,31 @@
         <v>546</v>
       </c>
       <c r="C209" t="s">
-        <v>116</v>
+        <v>466</v>
       </c>
       <c r="D209" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E209" t="s">
-        <v>108</v>
+        <v>690</v>
       </c>
       <c r="F209" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G209" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="H209" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="I209" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="J209" s="2">
         <v>2013</v>
       </c>
       <c r="K209" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="L209" t="s">
         <v>117</v>
@@ -11799,7 +11826,7 @@
         <v>551</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
@@ -11810,13 +11837,13 @@
         <v>546</v>
       </c>
       <c r="C210" t="s">
-        <v>116</v>
+        <v>413</v>
       </c>
       <c r="D210" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="E210" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F210" t="s">
         <v>694</v>
@@ -11825,16 +11852,16 @@
         <v>713</v>
       </c>
       <c r="H210" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I210" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="J210" s="2">
         <v>2018</v>
       </c>
       <c r="K210" s="2">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="L210" t="s">
         <v>117</v>
@@ -11843,7 +11870,7 @@
         <v>551</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
@@ -11860,25 +11887,25 @@
         <v>518</v>
       </c>
       <c r="E211" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="F211" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G211" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="H211" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="I211" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J211" s="2">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="K211" s="2">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="L211" t="s">
         <v>117</v>
@@ -11887,7 +11914,7 @@
         <v>551</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
@@ -11904,25 +11931,25 @@
         <v>518</v>
       </c>
       <c r="E212" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G212" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H212" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="I212" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="J212" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="K212" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="L212" t="s">
         <v>117</v>
@@ -11931,7 +11958,7 @@
         <v>551</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>331</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
@@ -11957,16 +11984,16 @@
         <v>715</v>
       </c>
       <c r="H213" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I213" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J213" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="K213" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="L213" t="s">
         <v>117</v>
@@ -11975,7 +12002,7 @@
         <v>551</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
@@ -11992,25 +12019,25 @@
         <v>518</v>
       </c>
       <c r="E214" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
         <v>695</v>
       </c>
       <c r="G214" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H214" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I214" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J214" s="2">
         <v>2015</v>
       </c>
       <c r="K214" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="L214" t="s">
         <v>117</v>
@@ -12019,7 +12046,7 @@
         <v>551</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -12036,25 +12063,25 @@
         <v>518</v>
       </c>
       <c r="E215" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F215" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G215" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H215" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="I215" t="s">
-        <v>564</v>
+        <v>687</v>
       </c>
       <c r="J215" s="2">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="K215" s="2">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="L215" t="s">
         <v>117</v>
@@ -12063,7 +12090,7 @@
         <v>551</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -12080,19 +12107,19 @@
         <v>518</v>
       </c>
       <c r="E216" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="F216" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G216" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="H216" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I216" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="J216" s="2">
         <v>2015</v>
@@ -12100,14 +12127,14 @@
       <c r="K216" s="2">
         <v>2014</v>
       </c>
-      <c r="L216">
-        <v>0</v>
+      <c r="L216" t="s">
+        <v>117</v>
       </c>
       <c r="M216" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -12124,25 +12151,25 @@
         <v>518</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F217" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G217" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="H217" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="I217" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="J217" s="2">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="K217" s="2">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="L217" t="s">
         <v>117</v>
@@ -12151,7 +12178,7 @@
         <v>551</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -12168,38 +12195,126 @@
         <v>518</v>
       </c>
       <c r="E218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F218" t="s">
+        <v>694</v>
+      </c>
+      <c r="G218" t="s">
+        <v>719</v>
+      </c>
+      <c r="H218" t="s">
+        <v>99</v>
+      </c>
+      <c r="I218" t="s">
+        <v>678</v>
+      </c>
+      <c r="J218" s="2">
+        <v>2015</v>
+      </c>
+      <c r="K218" s="2">
+        <v>2014</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218" t="s">
+        <v>550</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>546</v>
+      </c>
+      <c r="C219" t="s">
+        <v>116</v>
+      </c>
+      <c r="D219" t="s">
+        <v>518</v>
+      </c>
+      <c r="E219" t="s">
+        <v>34</v>
+      </c>
+      <c r="F219" t="s">
+        <v>693</v>
+      </c>
+      <c r="G219" t="s">
+        <v>711</v>
+      </c>
+      <c r="H219" t="s">
+        <v>126</v>
+      </c>
+      <c r="I219" t="s">
+        <v>597</v>
+      </c>
+      <c r="J219" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K219" s="2">
+        <v>2017</v>
+      </c>
+      <c r="L219" t="s">
+        <v>117</v>
+      </c>
+      <c r="M219" t="s">
+        <v>551</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>546</v>
+      </c>
+      <c r="C220" t="s">
+        <v>116</v>
+      </c>
+      <c r="D220" t="s">
+        <v>518</v>
+      </c>
+      <c r="E220" t="s">
         <v>185</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F220" t="s">
         <v>695</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G220" t="s">
         <v>722</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H220" t="s">
         <v>186</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I220" t="s">
         <v>689</v>
       </c>
-      <c r="J218" s="2">
+      <c r="J220" s="2">
         <v>2020</v>
       </c>
-      <c r="K218" s="2">
+      <c r="K220" s="2">
         <v>2019</v>
       </c>
-      <c r="L218" t="s">
-        <v>117</v>
-      </c>
-      <c r="M218" t="s">
-        <v>551</v>
-      </c>
-      <c r="N218" s="1" t="s">
+      <c r="L220" t="s">
+        <v>117</v>
+      </c>
+      <c r="M220" t="s">
+        <v>551</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N218">
+  <sortState ref="A2:N220">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
